--- a/data/raw/iva_data/Rapporterade vårdtillfällen av Coronavirus - Period 2020-01-01 - 2020-04-01.xlsx
+++ b/data/raw/iva_data/Rapporterade vårdtillfällen av Coronavirus - Period 2020-01-01 - 2020-04-01.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Region</t>
   </si>
@@ -32,84 +32,87 @@
     <t>Region Dalarna</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Region Gävleborg</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
+    <t>Region Halland</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Region Jämtland Härjedalen</t>
+  </si>
+  <si>
+    <t>Region Jönköpings län</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Region Kalmar län</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Region Kronoberg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Region Norrbotten</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>Region Gävleborg</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Region Halland</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Region Jämtland Härjedalen</t>
-  </si>
-  <si>
-    <t>Region Jönköpings län</t>
-  </si>
-  <si>
-    <t>Region Kalmar län</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Region Kronoberg</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Region Norrbotten</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>Region Skåne</t>
   </si>
   <si>
-    <t>24</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Region Stockholm</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Region Sörmland</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Region Uppsala</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>Region Stockholm</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>Region Sörmland</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Region Uppsala</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Region Värmland</t>
   </si>
   <si>
@@ -119,21 +122,24 @@
     <t>Region Västerbotten</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Region Västernorrland</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Region Västernorrland</t>
-  </si>
-  <si>
     <t>Region Västmanland</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Region Örebro län</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Region Östergötland</t>
   </si>
   <si>
@@ -146,19 +152,19 @@
     <t>Västra Götalandsregionen</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>77</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
   <si>
     <t>Hela riket</t>
   </si>
   <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>402</t>
+    <t>526</t>
+  </si>
+  <si>
+    <t>427</t>
   </si>
 </sst>
 </file>
@@ -276,10 +282,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -309,128 +315,128 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -438,46 +444,46 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
